--- a/import/import.xlsx
+++ b/import/import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://summithandlingbc-my.sharepoint.com/personal/ntduong_summithandling_com/Documents/Documents/Programs/import/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://summithandlingbc-my.sharepoint.com/personal/ntduong_summithandling_com/Documents/Documents/Programs/GradientOptimization/import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F3F91BC5-CBCA-464A-98B6-81B14BBE2990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ED2600C-B3B2-4C99-BC6D-53088461ABE0}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{F3F91BC5-CBCA-464A-98B6-81B14BBE2990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB76BE24-C4E2-4490-8127-6D539E07ADE3}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="810" windowWidth="28560" windowHeight="14790" xr2:uid="{3D0F9C8F-4B1D-4EB1-A414-1CD31A0FF61F}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D0F9C8F-4B1D-4EB1-A414-1CD31A0FF61F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Column 1</t>
+    <t>Spend</t>
   </si>
   <si>
-    <t>Column 2</t>
+    <t>Leads</t>
   </si>
 </sst>
 </file>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04AAD0F-04C2-4843-ACC3-F01629631ADD}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,124 +431,101 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>12</v>
+        <v>7363</v>
       </c>
       <c r="B2">
-        <f>30+A2</f>
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>13</v>
+        <v>7237</v>
       </c>
       <c r="B3">
-        <v>125</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>11640</v>
+      </c>
+      <c r="B4">
         <v>54</v>
-      </c>
-      <c r="B4">
-        <f>30+A4+2</f>
-        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>12</v>
+        <v>11905</v>
       </c>
       <c r="B5">
-        <f>30+A5+3</f>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>35</v>
+        <v>12121</v>
       </c>
       <c r="B6">
-        <f>30+A6+10</f>
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>68</v>
+        <v>12767</v>
       </c>
       <c r="B7">
-        <f>30+A7+5</f>
-        <v>103</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>46</v>
+        <v>11844</v>
       </c>
       <c r="B8">
-        <f>30+A8+4</f>
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>31</v>
+        <v>12636</v>
       </c>
       <c r="B9">
-        <f>30+A9+2</f>
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>26</v>
+        <v>12408</v>
       </c>
       <c r="B10">
-        <f>30+A10+1</f>
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>34</v>
+        <v>12307</v>
       </c>
       <c r="B11">
-        <f>30+A11+8</f>
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>25</v>
+        <v>12391</v>
       </c>
       <c r="B12">
-        <f>30+A12+10</f>
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>23</v>
+        <v>12213</v>
       </c>
       <c r="B13">
-        <f>30+A13+8</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>21</v>
-      </c>
-      <c r="B14">
-        <f>30+A14+9</f>
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="B12" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>